--- a/planilha_anotacoes/gabs_controle_financeiro.xlsx
+++ b/planilha_anotacoes/gabs_controle_financeiro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timpes-my.sharepoint.com/personal/gasrodrigues_mpes_mp_br/Documents/Área de Trabalho/Interface Grafica Excel/planilha_anotacoes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasrodrigues\OneDrive - Ministerio Publico do Espirito Santo\Área de Trabalho\Interface Grafica Excel\planilha_anotacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_80C0D037DBF213E2B6627882D08867B72FB53369" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899A915C-280F-48F7-8E45-AB88DD7E7FB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7B95A-0615-426A-AE17-45F5F5F3063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle Financeiro" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Dia</t>
   </si>
@@ -62,49 +62,103 @@
     <t>Saldo</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>treste</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
-    <t>Julho</t>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Março</t>
   </si>
   <si>
     <t>2024</t>
   </si>
   <si>
-    <t>Deposito Salario</t>
-  </si>
-  <si>
-    <t>Salario</t>
-  </si>
-  <si>
-    <t>Entrada</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>sdas</t>
-  </si>
-  <si>
-    <t>Saida</t>
-  </si>
-  <si>
-    <t>adsa</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>treste</t>
-  </si>
-  <si>
-    <t>Saúde</t>
+    <t>Gabs</t>
+  </si>
+  <si>
+    <t>Contas</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>dsadas</t>
+  </si>
+  <si>
+    <t>adssad</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>fsdf</t>
   </si>
 </sst>
 </file>
@@ -169,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControleFinanceiro" displayName="ControleFinanceiro" ref="A1:G100000">
-  <autoFilter ref="A1:G100000" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControleFinanceiro" displayName="ControleFinanceiro" ref="A1:G99983">
+  <autoFilter ref="A1:G99983" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dia"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mês"/>
@@ -469,20 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -516,121 +570,203 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="I2">
         <v>1523</v>
       </c>
       <c r="J2">
-        <f>I2 + SUMIF(G2:G100000, "Entrada", F2:F100000) - SUMIF(G2:G100000, "Saida", F2:F100000)</f>
-        <v>1346</v>
+        <f>I2 + SUMIF(G2:G99983, "Entrada", F2:F99983) - SUMIF(G2:G99983, "Saida", F2:F99983)</f>
+        <v>4696.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1523</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1547</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>15.5</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1232</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>1232</v>
+        <v>1500</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>123</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -638,22 +774,357 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>800</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>14000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>3232</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1233</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1600</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1500</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1452</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>1212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>3123</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
